--- a/public/files/remont-stiralnyh/Семантика.xlsx
+++ b/public/files/remont-stiralnyh/Семантика.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1845,7 +1846,7 @@
   <dimension ref="A1:B502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5872,4 +5873,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>